--- a/assets/misc/2022/2022_Attendance.xlsx
+++ b/assets/misc/2022/2022_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F199A90-AB78-4912-9D93-F116AF67648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B610117-6A24-49BE-ABA2-95B05D9F74CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14505" yWindow="570" windowWidth="13830" windowHeight="10215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -124,10 +132,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +421,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,19 +433,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -454,67 +463,64 @@
         <v>252</v>
       </c>
       <c r="E2" s="2">
-        <f>+(C2-D2)/C2</f>
+        <f t="shared" ref="E2:E18" si="0">+(C2-D2)/C2</f>
         <v>0.37931034482758619</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
-        <v>44856</v>
-      </c>
-      <c r="D3">
-        <v>115</v>
+        <v>44769</v>
       </c>
       <c r="E3" s="2" t="e">
-        <f t="shared" ref="E3:E18" si="0">+(C3-D3)/C3</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>44856</v>
+        <v>44779</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>483</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>0.47826086956521741</v>
+        <v>0.6211180124223602</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>44849</v>
+        <v>44786</v>
       </c>
       <c r="C5">
-        <v>75</v>
+        <v>209</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.50239234449760761</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>44786</v>
+        <v>44821</v>
       </c>
       <c r="E6" s="2" t="e">
         <f t="shared" si="0"/>
@@ -532,11 +538,11 @@
         <v>283</v>
       </c>
       <c r="D7">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>0.4628975265017668</v>
+        <v>0.49823321554770317</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -546,32 +552,44 @@
       <c r="B8" s="1">
         <v>44842</v>
       </c>
-      <c r="E8" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C8">
+        <v>240</v>
+      </c>
+      <c r="D8">
+        <v>110</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>44821</v>
-      </c>
-      <c r="E9" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>44849</v>
+      </c>
+      <c r="C9">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>44779</v>
+        <v>44856</v>
       </c>
       <c r="D10">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="E10" s="2" t="e">
         <f t="shared" si="0"/>
@@ -580,59 +598,48 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
-        <v>44769</v>
-      </c>
-      <c r="E11" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>44856</v>
+      </c>
+      <c r="C11">
+        <v>115</v>
+      </c>
+      <c r="D11">
+        <v>60</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47826086956521741</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E18" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
+    <sortCondition ref="B2:B18"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/misc/2022/2022_Attendance.xlsx
+++ b/assets/misc/2022/2022_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B610117-6A24-49BE-ABA2-95B05D9F74CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F847AB6C-DE94-47C0-84EE-F8C6E363AD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13110" yWindow="1620" windowWidth="13020" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +463,7 @@
         <v>252</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E18" si="0">+(C2-D2)/C2</f>
+        <f t="shared" ref="E2:E11" si="0">+(C2-D2)/C2</f>
         <v>0.37931034482758619</v>
       </c>
     </row>
@@ -474,9 +474,15 @@
       <c r="B3" s="1">
         <v>44769</v>
       </c>
-      <c r="E3" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="C3">
+        <v>120</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -588,12 +594,15 @@
       <c r="B10" s="1">
         <v>44856</v>
       </c>
+      <c r="C10">
+        <v>120</v>
+      </c>
       <c r="D10">
         <v>115</v>
       </c>
-      <c r="E10" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/assets/misc/2022/2022_Attendance.xlsx
+++ b/assets/misc/2022/2022_Attendance.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\way0u\Documents\git\sqlsatwebsite\assets\misc\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F847AB6C-DE94-47C0-84EE-F8C6E363AD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61B9253-8767-4567-BB82-C9C0828C4324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13110" yWindow="1620" windowWidth="13020" windowHeight="12810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1550" windowWidth="10890" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Event</t>
   </si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>No show rate</t>
+  </si>
+  <si>
+    <t>SQL Saturday Oregon 2022</t>
   </si>
 </sst>
 </file>
@@ -421,18 +421,18 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -449,7 +449,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -467,7 +467,7 @@
         <v>0.37931034482758619</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -485,7 +485,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -503,7 +503,7 @@
         <v>0.6211180124223602</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -521,7 +521,7 @@
         <v>0.50239234449760761</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -533,7 +533,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -551,7 +551,7 @@
         <v>0.49823321554770317</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -569,7 +569,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -587,7 +587,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -605,7 +605,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -623,25 +623,34 @@
         <v>0.47826086956521741</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1">
+        <v>44877</v>
+      </c>
+      <c r="C12">
+        <v>218</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E18" s="2"/>
     </row>
   </sheetData>

--- a/assets/misc/2022/2022_Attendance.xlsx
+++ b/assets/misc/2022/2022_Attendance.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\way0u\Documents\git\sqlsatwebsite\assets\misc\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61B9253-8767-4567-BB82-C9C0828C4324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11FBE83B-30EA-4E0F-95BB-E14D84014EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1550" windowWidth="10890" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1575" yWindow="810" windowWidth="21240" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Event</t>
   </si>
@@ -81,6 +84,21 @@
   </si>
   <si>
     <t>SQL Saturday Oregon 2022</t>
+  </si>
+  <si>
+    <t>SQL Saturday Lima 2022</t>
+  </si>
+  <si>
+    <t>SQL Saturday Lima 2022 Virtual</t>
+  </si>
+  <si>
+    <t>Event Number</t>
+  </si>
+  <si>
+    <t>SQL Saturday Nepal 2022</t>
+  </si>
+  <si>
+    <t>SQL Saturday MN 2022 Virtual)</t>
   </si>
 </sst>
 </file>
@@ -418,244 +436,347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
+        <v>1022</v>
+      </c>
+      <c r="C2" s="1">
         <v>44695</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>406</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>252</v>
       </c>
-      <c r="E2" s="2">
-        <f t="shared" ref="E2:E11" si="0">+(C2-D2)/C2</f>
+      <c r="F2" s="2">
+        <f>IF(D2=0,0,+(D2-E2)/D2)</f>
         <v>0.37931034482758619</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
+        <v>1027</v>
+      </c>
+      <c r="C3" s="1">
         <v>44769</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>120</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>90</v>
       </c>
-      <c r="E3" s="2">
-        <f t="shared" si="0"/>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F16" si="0">IF(D3=0,0,+(D3-E3)/D3)</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
+        <v>1026</v>
+      </c>
+      <c r="C4" s="1">
         <v>44779</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>483</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>183</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>0.6211180124223602</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
+        <v>1029</v>
+      </c>
+      <c r="C5" s="1">
         <v>44786</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>209</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>104</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>0.50239234449760761</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
+        <v>1034</v>
+      </c>
+      <c r="C6" s="1">
         <v>44821</v>
       </c>
-      <c r="E6" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
+        <v>1031</v>
+      </c>
+      <c r="C7" s="1">
         <v>44842</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>283</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>142</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>0.49823321554770317</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8">
+        <v>1030</v>
+      </c>
+      <c r="C8" s="1">
         <v>44842</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>240</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>110</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
+        <v>1033</v>
+      </c>
+      <c r="C9" s="1">
         <v>44849</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>75</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>30</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10">
+        <v>1032</v>
+      </c>
+      <c r="C10" s="1">
         <v>44856</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>120</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>115</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11">
+        <v>1036</v>
+      </c>
+      <c r="C11" s="1">
         <v>44856</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>115</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>60</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>0.47826086956521741</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
+        <v>1035</v>
+      </c>
+      <c r="C12" s="1">
         <v>44877</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>218</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E18" s="2"/>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>1038</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44905</v>
+      </c>
+      <c r="D13">
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1038</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44905</v>
+      </c>
+      <c r="E14">
+        <v>100</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>1025</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44905</v>
+      </c>
+      <c r="E15">
+        <v>57</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>1028</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44898</v>
+      </c>
+      <c r="E16">
+        <v>70</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
-    <sortCondition ref="B2:B18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F18">
+    <sortCondition ref="C2:C18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
